--- a/biology/Médecine/Pierre_Honoré_Bérard/Pierre_Honoré_Bérard.xlsx
+++ b/biology/Médecine/Pierre_Honoré_Bérard/Pierre_Honoré_Bérard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_Honor%C3%A9_B%C3%A9rard</t>
+          <t>Pierre_Honoré_Bérard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Honoré Bérard, dit Bérard aîné, né le 27 octobre 1797 à Lichtenberg (Bas-Rhin) et mort le 12 décembre 1858 à Saint-Maurice[1], était un médecin français, frère aîné du chirurgien Auguste Bérard.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Honoré Bérard, dit Bérard aîné, né le 27 octobre 1797 à Lichtenberg (Bas-Rhin) et mort le 12 décembre 1858 à Saint-Maurice, était un médecin français, frère aîné du chirurgien Auguste Bérard.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_Honor%C3%A9_B%C3%A9rard</t>
+          <t>Pierre_Honoré_Bérard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Honoré Bérard fut doyen de la faculté de médecine de Paris, puis inspecteur général. Il avait commencé la publication d'un Cours de physiologie, vaste et important ouvrage que la mort l'empêcha d'achever.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre_Honor%C3%A9_B%C3%A9rard</t>
+          <t>Pierre_Honoré_Bérard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dissertation sur plusieurs points d'anatomie pathologique et de pathologie,  Paris : impr. Didot jeune. 1826. (Thèse de médecine de Paris, 1826 n° 23.)(Texte intégral.)</t>
         </is>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pierre_Honor%C3%A9_B%C3%A9rard</t>
+          <t>Pierre_Honoré_Bérard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Élèves</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Simon Noël Dupré</t>
         </is>
